--- a/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v2.xlsx
+++ b/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\winhome\Mis documentos\docencia\asignaturas\dir\Prácticas\GIC-DIR-P1-Building_v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Tercero\DIR\GIC-DIR-P1-e6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="582" documentId="11_974016B32E305451A94E8D177CC1DBFF0885569F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59EC6D3B-0FCA-45FD-BA18-4509CE5C3451}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB882F70-8422-4847-9289-43A030EFD6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="188">
   <si>
     <t>DEPARTAMENTOS</t>
   </si>
@@ -477,13 +477,133 @@
   </si>
   <si>
     <t>10.1.10.1/23</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>192.168.1.0/24</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>GigabitEthernet 3/2</t>
+  </si>
+  <si>
+    <t>PC-Admin</t>
+  </si>
+  <si>
+    <t>192.168.1.2/24</t>
+  </si>
+  <si>
+    <t>192.168.1.3</t>
+  </si>
+  <si>
+    <t>192.168.1.4</t>
+  </si>
+  <si>
+    <t>192.168.1.5</t>
+  </si>
+  <si>
+    <t>192.168.1.6</t>
+  </si>
+  <si>
+    <t>192.168.1.7</t>
+  </si>
+  <si>
+    <t>192.168.1.8</t>
+  </si>
+  <si>
+    <t>192.168.1.9</t>
+  </si>
+  <si>
+    <t>192.168.1.10</t>
+  </si>
+  <si>
+    <t>192.168.1.11</t>
+  </si>
+  <si>
+    <t>192.168.1.12</t>
+  </si>
+  <si>
+    <t>192.168.1.13</t>
+  </si>
+  <si>
+    <t>192.168.1.14</t>
+  </si>
+  <si>
+    <t>192.168.1.15</t>
+  </si>
+  <si>
+    <t>10.0.48.4</t>
+  </si>
+  <si>
+    <t>10.0.48.5</t>
+  </si>
+  <si>
+    <t>10.0.48.3</t>
+  </si>
+  <si>
+    <t>10.0.48.2</t>
+  </si>
+  <si>
+    <t>10.0.60.2</t>
+  </si>
+  <si>
+    <t>10.0.60.3</t>
+  </si>
+  <si>
+    <t>10.0.60.4</t>
+  </si>
+  <si>
+    <t>10.0.60.5</t>
+  </si>
+  <si>
+    <t>10.0.56.3</t>
+  </si>
+  <si>
+    <t>10.0.56.2</t>
+  </si>
+  <si>
+    <t>10.0.62.2</t>
+  </si>
+  <si>
+    <t>10.0.62.3</t>
+  </si>
+  <si>
+    <t>10.0.52.3</t>
+  </si>
+  <si>
+    <t>10.0.52.2</t>
+  </si>
+  <si>
+    <t>10.0.54.2</t>
+  </si>
+  <si>
+    <t>10.0.54.3</t>
+  </si>
+  <si>
+    <t>10.0.61.3</t>
+  </si>
+  <si>
+    <t>10.0.61.2</t>
+  </si>
+  <si>
+    <t>10.0.58.2</t>
+  </si>
+  <si>
+    <t>10.0.58.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +631,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -939,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1009,7 +1135,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1080,21 +1205,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1149,11 +1259,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,7 +1313,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1493,13 +1633,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -1515,17 +1655,17 @@
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1536,7 +1676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1609,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1645,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1681,7 +1821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1717,7 +1857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1753,7 +1893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1789,7 +1929,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -1825,7 +1965,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -1861,9 +2001,28 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="28"/>
-      <c r="G11" s="29"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="18">
+        <v>600</v>
+      </c>
+      <c r="E11" s="18">
+        <v>256</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>151</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="Q11" s="14">
         <f t="shared" si="2"/>
@@ -1878,17 +2037,17 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="62" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1902,29 +2061,29 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="40" t="s">
         <v>52</v>
       </c>
       <c r="Q13" s="14">
@@ -1940,27 +2099,29 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="51" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="19" t="s">
         <v>59</v>
       </c>
       <c r="O14" s="16"/>
@@ -1977,27 +2138,29 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="52" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="20" t="s">
         <v>58</v>
       </c>
       <c r="Q15" s="14">
@@ -2013,25 +2176,27 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="52" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23" t="s">
+      <c r="E16" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="35"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="20"/>
       <c r="Q16" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2045,25 +2210,27 @@
         <v>16382</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="52" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="35"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="20"/>
       <c r="K17" s="16"/>
       <c r="Q17" s="14">
         <f t="shared" si="2"/>
@@ -2078,25 +2245,27 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="52" t="s">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="8">
         <v>1</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23" t="s">
+      <c r="E18" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="35"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="20"/>
       <c r="Q18" s="15">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2110,841 +2279,919 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="52" t="s">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="8">
         <v>1</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23" t="s">
+      <c r="E19" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="35"/>
-      <c r="Q19" s="68" t="s">
+      <c r="G19" s="72"/>
+      <c r="H19" s="20"/>
+      <c r="Q19" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="69"/>
-      <c r="S19" s="70"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="52" t="s">
+      <c r="R19" s="63"/>
+      <c r="S19" s="64"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="8">
         <v>2</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23" t="s">
+      <c r="E20" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="35"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="20"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="71" t="s">
+      <c r="Q20" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="R20" s="72"/>
-      <c r="S20" s="73"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="52" t="s">
+      <c r="R20" s="66"/>
+      <c r="S20" s="67"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23" t="s">
+      <c r="E21" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="35"/>
-      <c r="Q21" s="71" t="s">
+      <c r="G21" s="72"/>
+      <c r="H21" s="20"/>
+      <c r="Q21" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="72"/>
-      <c r="S21" s="73"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="52" t="s">
+      <c r="R21" s="66"/>
+      <c r="S21" s="67"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="55" t="s">
+      <c r="H22" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="74" t="s">
+      <c r="Q22" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="75"/>
-      <c r="S22" s="76"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="52" t="s">
+      <c r="R22" s="69"/>
+      <c r="S22" s="70"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18" t="s">
+      <c r="E23" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="71" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="52" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="55"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="52" t="s">
+      <c r="G24" s="79"/>
+      <c r="H24" s="71"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="55"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="53" t="s">
+      <c r="G25" s="79"/>
+      <c r="H25" s="71"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57" t="s">
+      <c r="E26" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="65" t="s">
+      <c r="G26" s="81"/>
+      <c r="H26" s="82"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="43" t="s">
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="61"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="42"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="37" t="s">
+      <c r="H28" s="41"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32" t="s">
+      <c r="E29" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="19" t="s">
         <v>95</v>
       </c>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="38" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23" t="s">
+      <c r="E30" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="20" t="s">
         <v>97</v>
       </c>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="38" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="8">
         <v>2</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23" t="s">
+      <c r="E31" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="20" t="s">
         <v>100</v>
       </c>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="38" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="8">
         <v>2</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23" t="s">
+      <c r="E32" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="20" t="s">
         <v>102</v>
       </c>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="38" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="8">
         <v>2</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23" t="s">
+      <c r="E33" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H33" s="36"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="38" t="s">
+      <c r="H33" s="35"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="8">
         <v>2</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23" t="s">
+      <c r="E34" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="35" t="s">
+      <c r="G34" s="20" t="s">
         <v>102</v>
       </c>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="8">
         <v>2</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23" t="s">
+      <c r="E35" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="20" t="s">
         <v>97</v>
       </c>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="38" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="8">
         <v>2</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23" t="s">
+      <c r="E36" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="20" t="s">
         <v>95</v>
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23" t="s">
+      <c r="E37" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="35" t="s">
+      <c r="G37" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="38" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23" t="s">
+      <c r="E38" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="20" t="s">
         <v>97</v>
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="38" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="34">
+      <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23" t="s">
+      <c r="E39" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="38" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="8">
         <v>1</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23" t="s">
+      <c r="E40" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="38" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="38" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23" t="s">
+      <c r="E42" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="38" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="34">
+      <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23" t="s">
+      <c r="E43" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="38" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="8">
         <v>1</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23" t="s">
+      <c r="E44" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="38" t="s">
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="34">
+      <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23" t="s">
+      <c r="E45" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="G45" s="35" t="s">
+      <c r="G45" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I45" s="42"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="38" t="s">
+      <c r="I45" s="41"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23" t="s">
+      <c r="E46" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="G46" s="35" t="s">
+      <c r="G46" s="20" t="s">
         <v>95</v>
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="38" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="8">
         <v>2</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23" t="s">
+      <c r="E47" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="35" t="s">
+      <c r="G47" s="20" t="s">
         <v>97</v>
       </c>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="38" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="8">
         <v>2</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23" t="s">
+      <c r="E48" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="48" t="s">
+      <c r="G48" s="20" t="s">
         <v>95</v>
       </c>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="62" t="s">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" s="49"/>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="23"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="49" t="s">
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B51" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C51" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="44" t="s">
+      <c r="D51" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E51" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="23"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="31">
-        <v>500</v>
-      </c>
-      <c r="C51" s="32">
-        <v>4</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="33"/>
+      <c r="F51" s="40"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="34">
-        <v>501</v>
-      </c>
-      <c r="C52" s="78">
-        <v>512</v>
-      </c>
-      <c r="D52" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="35"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="30">
+        <v>500</v>
+      </c>
+      <c r="C52" s="31">
+        <v>4</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="32"/>
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="34">
-        <v>504</v>
-      </c>
-      <c r="C53" s="78">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="33">
+        <v>501</v>
+      </c>
+      <c r="C53" s="23">
         <v>512</v>
       </c>
-      <c r="D53" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" s="35"/>
+      <c r="D53" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="34"/>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="34">
-        <v>502</v>
-      </c>
-      <c r="C54" s="78">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="33">
+        <v>504</v>
+      </c>
+      <c r="C54" s="23">
         <v>512</v>
       </c>
-      <c r="D54" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="F54" s="35"/>
+      <c r="D54" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="34"/>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="34">
-        <v>505</v>
-      </c>
-      <c r="C55" s="78">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="33">
+        <v>502</v>
+      </c>
+      <c r="C55" s="23">
         <v>512</v>
       </c>
-      <c r="D55" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="F55" s="35"/>
+      <c r="D55" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="34"/>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="34">
-        <v>503</v>
-      </c>
-      <c r="C56" s="78">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="33">
+        <v>505</v>
+      </c>
+      <c r="C56" s="23">
         <v>512</v>
       </c>
-      <c r="D56" s="78" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="F56" s="35"/>
+      <c r="D56" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="34"/>
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B57" s="46">
-        <v>506</v>
-      </c>
-      <c r="C57" s="47">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="33">
+        <v>503</v>
+      </c>
+      <c r="C57" s="23">
         <v>512</v>
       </c>
-      <c r="D57" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="F57" s="48"/>
+      <c r="D57" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="34"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="45">
+        <v>506</v>
+      </c>
+      <c r="C58" s="46">
+        <v>512</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="47"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
@@ -2954,12 +3201,13 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="Q21:S21"/>
     <mergeCell ref="Q22:S22"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v2.xlsx
+++ b/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Tercero\DIR\GIC-DIR-P1-e6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\Universidad\Tercero\DIR\GIC-DIR-P1-e6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB882F70-8422-4847-9289-43A030EFD6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B22FB8-EF4B-4825-B94E-644ED5E0AAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="189">
   <si>
     <t>DEPARTAMENTOS</t>
   </si>
@@ -488,9 +488,6 @@
     <t>192.168.1.0/24</t>
   </si>
   <si>
-    <t>192.168.1.1</t>
-  </si>
-  <si>
     <t>GigabitEthernet 3/2</t>
   </si>
   <si>
@@ -524,9 +521,6 @@
     <t>192.168.1.10</t>
   </si>
   <si>
-    <t>192.168.1.11</t>
-  </si>
-  <si>
     <t>192.168.1.12</t>
   </si>
   <si>
@@ -597,6 +591,15 @@
   </si>
   <si>
     <t>10.0.58.3</t>
+  </si>
+  <si>
+    <t>192.168.1.1 (Office)</t>
+  </si>
+  <si>
+    <t>192.168.1.11 (Data Center)</t>
+  </si>
+  <si>
+    <t>192.168.1.16</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1205,6 +1208,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1258,42 +1285,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1635,37 +1626,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1676,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1713,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1749,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1785,7 +1776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1821,7 +1812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1857,7 +1848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1893,7 +1884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1929,7 +1920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -1965,7 +1956,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -2001,7 +1992,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>148</v>
       </c>
@@ -2020,10 +2011,12 @@
       <c r="F11" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="9"/>
+      <c r="G11" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="Q11" s="14">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2037,17 +2030,17 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2061,7 +2054,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>45</v>
       </c>
@@ -2099,7 +2092,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
         <v>53</v>
       </c>
@@ -2113,7 +2106,7 @@
         <v>56</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>57</v>
@@ -2138,26 +2131,26 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="72" t="s">
+      <c r="E15" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="23" t="s">
         <v>59</v>
       </c>
       <c r="H15" s="20" t="s">
@@ -2176,26 +2169,26 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="72" t="s">
+      <c r="E16" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="77"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="20"/>
       <c r="Q16" s="14">
         <f t="shared" si="2"/>
@@ -2210,26 +2203,26 @@
         <v>16382</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="72" t="s">
+      <c r="E17" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="72"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="20"/>
       <c r="K17" s="16"/>
       <c r="Q17" s="14">
@@ -2245,26 +2238,26 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="51" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="72" t="s">
+      <c r="E18" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="72"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="20"/>
       <c r="Q18" s="15">
         <f t="shared" si="2"/>
@@ -2279,224 +2272,224 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="51" t="s">
         <v>69</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="72" t="s">
+      <c r="E19" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="72"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="20"/>
-      <c r="Q19" s="62" t="s">
+      <c r="Q19" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="63"/>
-      <c r="S19" s="64"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R19" s="71"/>
+      <c r="S19" s="72"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="51" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="72" t="s">
+      <c r="E20" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="72"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="20"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="65" t="s">
+      <c r="Q20" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="R20" s="66"/>
-      <c r="S20" s="67"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R20" s="74"/>
+      <c r="S20" s="75"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="72" t="s">
+      <c r="E21" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="72"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="20"/>
-      <c r="Q21" s="65" t="s">
+      <c r="Q21" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="66"/>
-      <c r="S21" s="67"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R21" s="74"/>
+      <c r="S21" s="75"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="79" t="s">
+      <c r="E22" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="79" t="s">
+      <c r="G22" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="68" t="s">
+      <c r="Q22" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="69"/>
-      <c r="S22" s="70"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R22" s="77"/>
+      <c r="S22" s="78"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="79" t="s">
+      <c r="F24" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="79"/>
-      <c r="H24" s="71"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G24" s="18"/>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="79" t="s">
+      <c r="D25" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="79" t="s">
+      <c r="E25" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="71"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="18"/>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="81" t="s">
+      <c r="D26" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="81"/>
-      <c r="H26" s="82"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
+      <c r="G26" s="59"/>
+      <c r="H26" s="60"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="61"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="69"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="42" t="s">
         <v>91</v>
       </c>
@@ -2520,7 +2513,7 @@
       </c>
       <c r="H28" s="41"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
         <v>94</v>
       </c>
@@ -2534,7 +2527,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>61</v>
@@ -2544,23 +2537,23 @@
       </c>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="F30" s="72" t="s">
+      <c r="E30" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>61</v>
       </c>
       <c r="G30" s="20" t="s">
@@ -2568,23 +2561,23 @@
       </c>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="8">
         <v>2</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="72" t="s">
+      <c r="D31" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="F31" s="72" t="s">
+      <c r="E31" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>76</v>
       </c>
       <c r="G31" s="20" t="s">
@@ -2592,23 +2585,23 @@
       </c>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
         <v>101</v>
       </c>
       <c r="B32" s="8">
         <v>2</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="72" t="s">
+      <c r="D32" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="72" t="s">
+      <c r="E32" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="23" t="s">
         <v>76</v>
       </c>
       <c r="G32" s="20" t="s">
@@ -2616,23 +2609,23 @@
       </c>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="8">
         <v>2</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="F33" s="72" t="s">
+      <c r="E33" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="23" t="s">
         <v>72</v>
       </c>
       <c r="G33" s="20" t="s">
@@ -2640,23 +2633,23 @@
       </c>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>105</v>
       </c>
       <c r="B34" s="8">
         <v>2</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="F34" s="72" t="s">
+      <c r="E34" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="23" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="20" t="s">
@@ -2664,23 +2657,23 @@
       </c>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="8">
         <v>2</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="72" t="s">
+      <c r="D35" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="72" t="s">
+      <c r="E35" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="23" t="s">
         <v>76</v>
       </c>
       <c r="G35" s="20" t="s">
@@ -2688,23 +2681,23 @@
       </c>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>108</v>
       </c>
       <c r="B36" s="8">
         <v>2</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D36" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="72" t="s">
+      <c r="E36" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="23" t="s">
         <v>76</v>
       </c>
       <c r="G36" s="20" t="s">
@@ -2712,46 +2705,46 @@
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" s="72" t="s">
+      <c r="E37" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="23" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
         <v>110</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="F38" s="72" t="s">
+      <c r="E38" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="23" t="s">
         <v>65</v>
       </c>
       <c r="G38" s="20" t="s">
@@ -2759,138 +2752,138 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
         <v>111</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="F39" s="72" t="s">
+      <c r="E39" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="23" t="s">
         <v>66</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
         <v>112</v>
       </c>
       <c r="B40" s="8">
         <v>1</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="72" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" s="72" t="s">
+      <c r="E40" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>66</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>113</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="F41" s="72" t="s">
+      <c r="E41" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="23" t="s">
         <v>66</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>114</v>
       </c>
       <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="72" t="s">
+      <c r="D42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="72" t="s">
-        <v>181</v>
-      </c>
-      <c r="F42" s="72" t="s">
+      <c r="E42" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" s="23" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>115</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="72" t="s">
-        <v>182</v>
-      </c>
-      <c r="F43" s="72" t="s">
+      <c r="E43" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="23" t="s">
         <v>69</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>116</v>
       </c>
       <c r="B44" s="8">
         <v>1</v>
       </c>
-      <c r="C44" s="72" t="s">
+      <c r="C44" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="72" t="s">
+      <c r="D44" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="72" t="s">
-        <v>183</v>
-      </c>
-      <c r="F44" s="72" t="s">
+      <c r="E44" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44" s="23" t="s">
         <v>69</v>
       </c>
       <c r="G44" s="20" t="s">
@@ -2899,23 +2892,23 @@
       <c r="I44" s="49"/>
       <c r="J44" s="49"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>117</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="72" t="s">
+      <c r="C45" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="72" t="s">
+      <c r="D45" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="72" t="s">
-        <v>184</v>
-      </c>
-      <c r="F45" s="72" t="s">
+      <c r="E45" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="23" t="s">
         <v>69</v>
       </c>
       <c r="G45" s="20" t="s">
@@ -2923,23 +2916,23 @@
       </c>
       <c r="I45" s="41"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
         <v>118</v>
       </c>
       <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="72" t="s">
+      <c r="D46" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" s="72" t="s">
+      <c r="E46" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F46" s="23" t="s">
         <v>69</v>
       </c>
       <c r="G46" s="20" t="s">
@@ -2947,23 +2940,23 @@
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
         <v>119</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
       </c>
-      <c r="C47" s="72" t="s">
+      <c r="C47" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="72" t="s">
+      <c r="D47" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="F47" s="72" t="s">
+      <c r="E47" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" s="23" t="s">
         <v>72</v>
       </c>
       <c r="G47" s="20" t="s">
@@ -2971,23 +2964,23 @@
       </c>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
         <v>120</v>
       </c>
       <c r="B48" s="8">
         <v>2</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="72" t="s">
+      <c r="D48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="72" t="s">
-        <v>187</v>
-      </c>
-      <c r="F48" s="72" t="s">
+      <c r="E48" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="23" t="s">
         <v>72</v>
       </c>
       <c r="G48" s="20" t="s">
@@ -2995,45 +2988,45 @@
       </c>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="F49" s="75" t="s">
+      <c r="F49" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G49" s="76" t="s">
-        <v>152</v>
+      <c r="G49" s="56" t="s">
+        <v>151</v>
       </c>
       <c r="H49" s="49"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="56" t="s">
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="73"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="61"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="69"/>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="48" t="s">
         <v>122</v>
       </c>
@@ -3054,7 +3047,7 @@
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="37" t="s">
         <v>127</v>
       </c>
@@ -3075,7 +3068,7 @@
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="37" t="s">
         <v>130</v>
       </c>
@@ -3095,7 +3088,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="37" t="s">
         <v>133</v>
       </c>
@@ -3115,7 +3108,7 @@
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="37" t="s">
         <v>136</v>
       </c>
@@ -3135,7 +3128,7 @@
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="37" t="s">
         <v>139</v>
       </c>
@@ -3155,7 +3148,7 @@
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="37" t="s">
         <v>142</v>
       </c>
@@ -3175,7 +3168,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="38" t="s">
         <v>145</v>
       </c>

--- a/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v2.xlsx
+++ b/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\Universidad\Tercero\DIR\GIC-DIR-P1-e6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B22FB8-EF4B-4825-B94E-644ED5E0AAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DE417B-8CD9-4603-8D81-16E4C13D232E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="195">
   <si>
     <t>DEPARTAMENTOS</t>
   </si>
@@ -600,6 +600,24 @@
   </si>
   <si>
     <t>192.168.1.16</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>10.1.12.0/23</t>
+  </si>
+  <si>
+    <t>10.1.14.0/23</t>
+  </si>
+  <si>
+    <t>10.1.12.1/23</t>
+  </si>
+  <si>
+    <t>10.1.14.1/23</t>
   </si>
 </sst>
 </file>
@@ -680,7 +698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -997,15 +1015,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1138,73 +1147,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,6 +1211,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1250,13 +1242,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,6 +1277,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1624,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1647,16 +1648,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2011,7 +2012,7 @@
       <c r="F11" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="43" t="s">
         <v>186</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -2031,16 +2032,16 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2058,25 +2059,25 @@
       <c r="A13" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="34" t="s">
         <v>52</v>
       </c>
       <c r="Q13" s="14">
@@ -2093,7 +2094,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2132,25 +2133,25 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="41" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="76" t="s">
         <v>59</v>
       </c>
       <c r="H15" s="20" t="s">
@@ -2170,25 +2171,25 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="41" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="35"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="20"/>
       <c r="Q16" s="14">
         <f t="shared" si="2"/>
@@ -2204,25 +2205,25 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="41" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="23"/>
+      <c r="G17" s="76"/>
       <c r="H17" s="20"/>
       <c r="K17" s="16"/>
       <c r="Q17" s="14">
@@ -2239,25 +2240,25 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="41" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="23"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="20"/>
       <c r="Q18" s="15">
         <f t="shared" si="2"/>
@@ -2273,248 +2274,248 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="41" t="s">
         <v>69</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="23"/>
+      <c r="G19" s="76"/>
       <c r="H19" s="20"/>
-      <c r="Q19" s="70" t="s">
+      <c r="Q19" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="71"/>
-      <c r="S19" s="72"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="69"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="41" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="23"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="20"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="73" t="s">
+      <c r="Q20" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="R20" s="74"/>
-      <c r="S20" s="75"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="72"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="41" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="23"/>
+      <c r="G21" s="76"/>
       <c r="H21" s="20"/>
-      <c r="Q21" s="73" t="s">
+      <c r="Q21" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="74"/>
-      <c r="S21" s="75"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="72"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="53" t="s">
+      <c r="H22" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="76" t="s">
+      <c r="Q22" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="77"/>
-      <c r="S22" s="78"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="75"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="43" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="53"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="53"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="43"/>
     </row>
     <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="41"/>
+      <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="31" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -2538,7 +2539,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="32" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -2562,7 +2563,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="32" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="8">
@@ -2586,7 +2587,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="32" t="s">
         <v>101</v>
       </c>
       <c r="B32" s="8">
@@ -2610,7 +2611,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="32" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="8">
@@ -2631,10 +2632,10 @@
       <c r="G33" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H33" s="35"/>
+      <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="32" t="s">
         <v>105</v>
       </c>
       <c r="B34" s="8">
@@ -2658,7 +2659,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="8">
@@ -2682,7 +2683,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="32" t="s">
         <v>108</v>
       </c>
       <c r="B36" s="8">
@@ -2706,7 +2707,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="32" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -2729,7 +2730,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="32" t="s">
         <v>110</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -2753,7 +2754,7 @@
       <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="32" t="s">
         <v>111</v>
       </c>
       <c r="B39" s="8">
@@ -2776,7 +2777,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="32" t="s">
         <v>112</v>
       </c>
       <c r="B40" s="8">
@@ -2799,7 +2800,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="32" t="s">
         <v>113</v>
       </c>
       <c r="B41" s="8">
@@ -2822,7 +2823,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="32" t="s">
         <v>114</v>
       </c>
       <c r="B42" s="8">
@@ -2845,7 +2846,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="32" t="s">
         <v>115</v>
       </c>
       <c r="B43" s="8">
@@ -2868,7 +2869,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="32" t="s">
         <v>116</v>
       </c>
       <c r="B44" s="8">
@@ -2889,11 +2890,11 @@
       <c r="G44" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="32" t="s">
         <v>117</v>
       </c>
       <c r="B45" s="8">
@@ -2914,10 +2915,10 @@
       <c r="G45" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I45" s="41"/>
+      <c r="I45" s="35"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="32" t="s">
         <v>118</v>
       </c>
       <c r="B46" s="8">
@@ -2941,7 +2942,7 @@
       <c r="I46" s="23"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="32" t="s">
         <v>119</v>
       </c>
       <c r="B47" s="8">
@@ -2965,7 +2966,7 @@
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="32" t="s">
         <v>120</v>
       </c>
       <c r="B48" s="8">
@@ -2989,90 +2990,90 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="E49" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="55" t="s">
+      <c r="F49" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="G49" s="56" t="s">
+      <c r="G49" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="H49" s="49"/>
+      <c r="H49" s="39"/>
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="40"/>
+      <c r="F51" s="34"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="30">
+      <c r="B52" s="7">
         <v>500</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="22">
         <v>4</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F52" s="32"/>
+      <c r="F52" s="56"/>
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="8">
         <v>501</v>
       </c>
       <c r="C53" s="23">
@@ -3081,18 +3082,18 @@
       <c r="D53" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="34"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="8">
         <v>504</v>
       </c>
       <c r="C54" s="23">
@@ -3101,18 +3102,18 @@
       <c r="D54" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F54" s="34"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B55" s="33">
+      <c r="B55" s="8">
         <v>502</v>
       </c>
       <c r="C55" s="23">
@@ -3121,18 +3122,18 @@
       <c r="D55" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="F55" s="34"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="33">
+      <c r="B56" s="8">
         <v>505</v>
       </c>
       <c r="C56" s="23">
@@ -3141,18 +3142,18 @@
       <c r="D56" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F56" s="34"/>
+      <c r="F56" s="57"/>
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="8">
         <v>503</v>
       </c>
       <c r="C57" s="23">
@@ -3161,30 +3162,74 @@
       <c r="D57" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="34"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
     </row>
-    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="38" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B58" s="8">
         <v>506</v>
       </c>
-      <c r="C58" s="46">
+      <c r="C58" s="23">
         <v>512</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E58" s="47" t="s">
+      <c r="E58" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="F58" s="47"/>
+      <c r="F58" s="57"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="8">
+        <v>507</v>
+      </c>
+      <c r="C59" s="23">
+        <v>512</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" s="57"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" s="8">
+        <v>508</v>
+      </c>
+      <c r="C60" s="23">
+        <v>512</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F60" s="57"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="52"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="52"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">

--- a/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v2.xlsx
+++ b/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\Universidad\Tercero\DIR\GIC-DIR-P1-e6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Tercero\DIR\GIC-DIR-P1-e6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DE417B-8CD9-4603-8D81-16E4C13D232E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC76243C-D97D-44E8-A1A7-2E326018D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -488,12 +488,6 @@
     <t>192.168.1.0/24</t>
   </si>
   <si>
-    <t>GigabitEthernet 3/2</t>
-  </si>
-  <si>
-    <t>PC-Admin</t>
-  </si>
-  <si>
     <t>192.168.1.2/24</t>
   </si>
   <si>
@@ -618,6 +612,12 @@
   </si>
   <si>
     <t>10.1.14.1/23</t>
+  </si>
+  <si>
+    <t>PC-DC-Admin</t>
+  </si>
+  <si>
+    <t>FastEthernet 0/3</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1277,15 +1277,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1627,27 +1618,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1741,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1777,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1813,7 +1804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1849,7 +1840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1885,7 +1876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1921,7 +1912,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -1957,7 +1948,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -1993,7 +1984,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>148</v>
       </c>
@@ -2013,10 +2004,10 @@
         <v>150</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="14">
         <f t="shared" si="2"/>
@@ -2031,7 +2022,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>44</v>
       </c>
@@ -2055,7 +2046,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>45</v>
       </c>
@@ -2093,7 +2084,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>53</v>
       </c>
@@ -2107,7 +2098,7 @@
         <v>56</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>57</v>
@@ -2132,26 +2123,26 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="76" t="s">
+      <c r="E15" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="23" t="s">
         <v>59</v>
       </c>
       <c r="H15" s="20" t="s">
@@ -2170,26 +2161,26 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="76" t="s">
+      <c r="E16" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="77"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="20"/>
       <c r="Q16" s="14">
         <f t="shared" si="2"/>
@@ -2204,26 +2195,26 @@
         <v>16382</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="76" t="s">
+      <c r="E17" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="76"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="20"/>
       <c r="K17" s="16"/>
       <c r="Q17" s="14">
@@ -2239,26 +2230,26 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="76" t="s">
+      <c r="E18" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="76"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="20"/>
       <c r="Q18" s="15">
         <f t="shared" si="2"/>
@@ -2273,26 +2264,26 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>69</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" s="76" t="s">
+      <c r="E19" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="76"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="20"/>
       <c r="Q19" s="67" t="s">
         <v>71</v>
@@ -2300,26 +2291,26 @@
       <c r="R19" s="68"/>
       <c r="S19" s="69"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" s="76" t="s">
+      <c r="E20" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="76"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="20"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="70" t="s">
@@ -2328,26 +2319,26 @@
       <c r="R20" s="71"/>
       <c r="S20" s="72"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="76" t="s">
+      <c r="E21" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="76"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="20"/>
       <c r="Q21" s="70" t="s">
         <v>78</v>
@@ -2355,26 +2346,26 @@
       <c r="R21" s="71"/>
       <c r="S21" s="72"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="78" t="s">
+      <c r="E22" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="78" t="s">
+      <c r="G22" s="18" t="s">
         <v>80</v>
       </c>
       <c r="H22" s="43" t="s">
@@ -2386,77 +2377,77 @@
       <c r="R22" s="74"/>
       <c r="S22" s="75"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="78" t="s">
+      <c r="E23" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="78" t="s">
+      <c r="G23" s="18" t="s">
         <v>81</v>
       </c>
       <c r="H23" s="43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B24" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="76" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="78" t="s">
+      <c r="E24" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="78"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="43"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" s="78" t="s">
+      <c r="E25" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="78"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="43"/>
     </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
         <v>84</v>
       </c>
@@ -2470,7 +2461,7 @@
         <v>85</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F26" s="49" t="s">
         <v>64</v>
@@ -2478,7 +2469,7 @@
       <c r="G26" s="49"/>
       <c r="H26" s="50"/>
     </row>
-    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="64" t="s">
         <v>90</v>
       </c>
@@ -2490,7 +2481,7 @@
       <c r="G27" s="65"/>
       <c r="H27" s="66"/>
     </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
         <v>91</v>
       </c>
@@ -2514,7 +2505,7 @@
       </c>
       <c r="H28" s="35"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>94</v>
       </c>
@@ -2528,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>61</v>
@@ -2538,7 +2529,7 @@
       </c>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>96</v>
       </c>
@@ -2552,7 +2543,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>61</v>
@@ -2562,7 +2553,7 @@
       </c>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>98</v>
       </c>
@@ -2576,7 +2567,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>76</v>
@@ -2586,7 +2577,7 @@
       </c>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>101</v>
       </c>
@@ -2600,7 +2591,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>76</v>
@@ -2610,7 +2601,7 @@
       </c>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>103</v>
       </c>
@@ -2624,7 +2615,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>72</v>
@@ -2634,7 +2625,7 @@
       </c>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>105</v>
       </c>
@@ -2648,7 +2639,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>72</v>
@@ -2658,7 +2649,7 @@
       </c>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>106</v>
       </c>
@@ -2672,7 +2663,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>76</v>
@@ -2682,7 +2673,7 @@
       </c>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>108</v>
       </c>
@@ -2696,7 +2687,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>76</v>
@@ -2706,7 +2697,7 @@
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>109</v>
       </c>
@@ -2720,7 +2711,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>65</v>
@@ -2729,7 +2720,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>110</v>
       </c>
@@ -2743,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F38" s="23" t="s">
         <v>65</v>
@@ -2753,7 +2744,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>111</v>
       </c>
@@ -2767,7 +2758,7 @@
         <v>40</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>66</v>
@@ -2776,7 +2767,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>112</v>
       </c>
@@ -2790,7 +2781,7 @@
         <v>40</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>66</v>
@@ -2799,7 +2790,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>113</v>
       </c>
@@ -2813,7 +2804,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>66</v>
@@ -2822,7 +2813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>114</v>
       </c>
@@ -2836,7 +2827,7 @@
         <v>16</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>66</v>
@@ -2845,7 +2836,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>115</v>
       </c>
@@ -2859,7 +2850,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>69</v>
@@ -2868,7 +2859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>116</v>
       </c>
@@ -2882,7 +2873,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>69</v>
@@ -2893,7 +2884,7 @@
       <c r="I44" s="39"/>
       <c r="J44" s="39"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>117</v>
       </c>
@@ -2907,7 +2898,7 @@
         <v>36</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>69</v>
@@ -2917,7 +2908,7 @@
       </c>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>118</v>
       </c>
@@ -2931,7 +2922,7 @@
         <v>36</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>69</v>
@@ -2941,7 +2932,7 @@
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>119</v>
       </c>
@@ -2955,7 +2946,7 @@
         <v>28</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>72</v>
@@ -2965,7 +2956,7 @@
       </c>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>120</v>
       </c>
@@ -2979,7 +2970,7 @@
         <v>28</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>72</v>
@@ -2989,9 +2980,9 @@
       </c>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="32" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="B49" s="44" t="s">
         <v>149</v>
@@ -3003,18 +2994,18 @@
         <v>148</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G49" s="46" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="61" t="s">
         <v>121</v>
       </c>
@@ -3027,7 +3018,7 @@
       <c r="H50" s="35"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>122</v>
       </c>
@@ -3048,7 +3039,7 @@
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="51" t="s">
         <v>127</v>
       </c>
@@ -3069,7 +3060,7 @@
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>130</v>
       </c>
@@ -3089,7 +3080,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>133</v>
       </c>
@@ -3109,7 +3100,7 @@
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>136</v>
       </c>
@@ -3129,7 +3120,7 @@
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>139</v>
       </c>
@@ -3149,7 +3140,7 @@
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>142</v>
       </c>
@@ -3169,7 +3160,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>145</v>
       </c>
@@ -3187,9 +3178,9 @@
       </c>
       <c r="F58" s="57"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B59" s="8">
         <v>507</v>
@@ -3198,16 +3189,16 @@
         <v>512</v>
       </c>
       <c r="D59" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E59" s="20" t="s">
-        <v>193</v>
-      </c>
       <c r="F59" s="57"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B60" s="8">
         <v>508</v>
@@ -3216,14 +3207,14 @@
         <v>512</v>
       </c>
       <c r="D60" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E60" s="20" t="s">
-        <v>194</v>
-      </c>
       <c r="F60" s="57"/>
     </row>
-    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="52"/>
       <c r="B61" s="53"/>
       <c r="C61" s="54"/>
